--- a/archivos/enviar-a-argentina.xlsx
+++ b/archivos/enviar-a-argentina.xlsx
@@ -292,6 +292,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -389,9 +392,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -400,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -692,7 +695,7 @@
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
     <col min="4" max="29" width="11.42578125" style="1"/>
-    <col min="30" max="16384" width="11.42578125" style="8"/>
+    <col min="30" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="48.75">
@@ -809,7 +812,7 @@
       <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="8">
         <v>42423</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -821,10 +824,10 @@
       <c r="L2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>11375</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>216125</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -898,7 +901,7 @@
       <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="8">
         <v>42440</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -910,10 +913,10 @@
       <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="4" t="s">
         <v>50</v>
       </c>
@@ -985,10 +988,10 @@
       <c r="H4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="8">
         <v>42440</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -997,10 +1000,10 @@
       <c r="L4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="4" t="s">
         <v>62</v>
       </c>
@@ -1072,7 +1075,7 @@
       <c r="H5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="8">
         <v>42440</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -1084,10 +1087,10 @@
       <c r="L5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1159,7 +1162,7 @@
       <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="8">
         <v>42440</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1171,10 +1174,10 @@
       <c r="L6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="4" t="s">
         <v>31</v>
       </c>
